--- a/Project Plan/Project Plan.xlsx
+++ b/Project Plan/Project Plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Liên quan đến học\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Software\aptechseem1\Project Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD34151-9570-4802-AB1C-AE14B83EEF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -19,26 +20,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>BATCH 159</t>
-  </si>
-  <si>
-    <t>25/5/2020</t>
-  </si>
-  <si>
-    <t>24:00 26/6/2020</t>
   </si>
   <si>
     <r>
@@ -177,21 +166,6 @@
     <t>22/05/2020</t>
   </si>
   <si>
-    <t>21/05/2020</t>
-  </si>
-  <si>
-    <t>24:00 24/05/2020</t>
-  </si>
-  <si>
-    <t>24:00 29/05/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24:00 1/6/2020</t>
-  </si>
-  <si>
-    <t>02/06/2020</t>
-  </si>
-  <si>
     <r>
       <t>Group</t>
     </r>
@@ -215,11 +189,65 @@
   <si>
     <t>3. VUONG HOANG LONG</t>
   </si>
+  <si>
+    <t>19/05/2020</t>
+  </si>
+  <si>
+    <t>26/05/2020</t>
+  </si>
+  <si>
+    <t>24/05/2020</t>
+  </si>
+  <si>
+    <t>26/06/2020</t>
+  </si>
+  <si>
+    <t>15/06/2020</t>
+  </si>
+  <si>
+    <t>15/6/2020</t>
+  </si>
+  <si>
+    <t>14/06/2020</t>
+  </si>
+  <si>
+    <t>16/06/2020</t>
+  </si>
+  <si>
+    <t>18/6/2020</t>
+  </si>
+  <si>
+    <t>L.N Toan &amp; V.H Long</t>
+  </si>
+  <si>
+    <t>23/06/2020</t>
+  </si>
+  <si>
+    <t>Le Nguyen Kha &amp; V.H Long</t>
+  </si>
+  <si>
+    <t>16/6/2020</t>
+  </si>
+  <si>
+    <t>19/6/2020</t>
+  </si>
+  <si>
+    <t>30/6/2020</t>
+  </si>
+  <si>
+    <t>20/6/2020</t>
+  </si>
+  <si>
+    <t>27/5/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,60 +408,73 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -753,11 +794,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -765,304 +806,366 @@
     <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="48.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" style="19" customWidth="1"/>
     <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="2:5" ht="24.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="E9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10" spans="2:5" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="20">
-        <v>43867</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>35</v>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
+      <c r="D13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="17">
+        <v>43836</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="21">
-        <v>43867</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
+      <c r="D14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="17">
+        <v>43896</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="21">
-        <v>43867</v>
-      </c>
-      <c r="E15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>38</v>
+      </c>
+      <c r="E15" s="17">
+        <v>43988</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="19">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="D16" s="11">
+        <v>44018</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="21">
-        <v>43867</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="D17" s="11">
+        <v>43927</v>
+      </c>
+      <c r="E17" s="17">
+        <v>44110</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="D18" s="11">
+        <v>43867</v>
+      </c>
+      <c r="E18" s="17">
+        <v>44110</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="D19" s="11">
+        <v>44110</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="21">
-        <v>43989</v>
-      </c>
-      <c r="E20" s="12">
-        <v>44081</v>
+        <v>27</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="D23" s="11">
+        <v>44141</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="17">
+        <v>44081</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="17">
+        <v>43837</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="17">
+        <v>43837</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D29" s="11">
+        <v>43868</v>
+      </c>
+      <c r="E29" s="17">
+        <v>44081</v>
       </c>
     </row>
   </sheetData>

--- a/Project Plan/Project Plan.xlsx
+++ b/Project Plan/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Software\aptechseem1\Project Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD34151-9570-4802-AB1C-AE14B83EEF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EB23F9-8736-415A-9DF6-15ECB380EC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>BATCH 159</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>22/6/2020</t>
+  </si>
+  <si>
+    <t>23/6/2020</t>
+  </si>
+  <si>
+    <t>Shoppingguide</t>
   </si>
 </sst>
 </file>
@@ -446,35 +455,35 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -541,7 +550,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -593,7 +602,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -795,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E29"/>
+  <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -807,17 +816,17 @@
     <col min="2" max="2" width="48.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" style="17" customWidth="1"/>
     <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -825,7 +834,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -835,7 +844,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="18"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -843,7 +852,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="18"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
@@ -851,7 +860,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="18"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -859,7 +868,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="18"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
@@ -867,12 +876,12 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:5" ht="24.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -884,7 +893,7 @@
       <c r="D9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -898,7 +907,7 @@
       <c r="D10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -912,7 +921,7 @@
       <c r="D11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -926,7 +935,7 @@
       <c r="D12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -940,7 +949,7 @@
       <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>43836</v>
       </c>
     </row>
@@ -954,7 +963,7 @@
       <c r="D14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>43896</v>
       </c>
     </row>
@@ -968,7 +977,7 @@
       <c r="D15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>43988</v>
       </c>
     </row>
@@ -982,7 +991,7 @@
       <c r="D16" s="11">
         <v>44018</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="21" t="s">
         <v>41</v>
       </c>
     </row>
@@ -996,7 +1005,7 @@
       <c r="D17" s="11">
         <v>43927</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>44110</v>
       </c>
     </row>
@@ -1010,7 +1019,7 @@
       <c r="D18" s="11">
         <v>43867</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>44110</v>
       </c>
     </row>
@@ -1024,7 +1033,7 @@
       <c r="D19" s="11">
         <v>44110</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1038,7 +1047,7 @@
       <c r="D20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1052,7 +1061,7 @@
       <c r="D21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="17" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1066,7 +1075,7 @@
       <c r="D22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1080,7 +1089,7 @@
       <c r="D23" s="11">
         <v>44141</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1094,7 +1103,7 @@
       <c r="D24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1108,63 +1117,77 @@
       <c r="D25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="17">
-        <v>44081</v>
+        <v>55</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="17">
-        <v>43837</v>
+        <v>53</v>
+      </c>
+      <c r="E27" s="15">
+        <v>44081</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="17">
+        <v>42</v>
+      </c>
+      <c r="E28" s="15">
         <v>43837</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="15">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>43868</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E30" s="15">
         <v>44081</v>
       </c>
     </row>

--- a/Project Plan/Project Plan.xlsx
+++ b/Project Plan/Project Plan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Software\aptechseem1\Project Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AptechSeem1\Project Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD34151-9570-4802-AB1C-AE14B83EEF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -127,9 +126,6 @@
     <t>SlideShow</t>
   </si>
   <si>
-    <t>Documents For Website</t>
-  </si>
-  <si>
     <t>Project Plan</t>
   </si>
   <si>
@@ -243,11 +239,14 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Text  For Website</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,35 +445,35 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -794,11 +793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -807,26 +806,26 @@
     <col min="2" max="2" width="48.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" style="17" customWidth="1"/>
     <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="18" t="s">
-        <v>54</v>
+      <c r="E2" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -835,7 +834,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="18"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -843,36 +842,36 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="18"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="18"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="18"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:5" ht="24.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -884,7 +883,7 @@
       <c r="D9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -896,65 +895,65 @@
         <v>18</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="17">
+        <v>37</v>
+      </c>
+      <c r="E13" s="15">
         <v>43836</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="17">
+        <v>37</v>
+      </c>
+      <c r="E14" s="15">
         <v>43896</v>
       </c>
     </row>
@@ -963,12 +962,12 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="17">
+        <v>37</v>
+      </c>
+      <c r="E15" s="15">
         <v>43988</v>
       </c>
     </row>
@@ -977,13 +976,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="11">
         <v>44018</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>41</v>
+      <c r="E16" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -991,12 +990,12 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="11">
         <v>43927</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>44110</v>
       </c>
     </row>
@@ -1005,27 +1004,27 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="11">
         <v>43867</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>44110</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="11">
         <v>44110</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>42</v>
+      <c r="E19" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -1033,13 +1032,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -1047,13 +1046,13 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -1061,13 +1060,13 @@
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -1075,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="11">
         <v>44141</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>49</v>
+      <c r="E23" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
@@ -1089,68 +1088,68 @@
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="17">
+        <v>52</v>
+      </c>
+      <c r="E26" s="15">
         <v>44081</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="17">
+        <v>41</v>
+      </c>
+      <c r="E27" s="15">
         <v>43837</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="17">
+        <v>50</v>
+      </c>
+      <c r="E28" s="15">
         <v>43837</v>
       </c>
     </row>
@@ -1159,12 +1158,12 @@
         <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="11">
         <v>43868</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="15">
         <v>44081</v>
       </c>
     </row>

--- a/Project Plan/Project Plan.xlsx
+++ b/Project Plan/Project Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AptechSeem1\Project Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\aptechseem1\Project Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>BATCH 159</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Text  For Website</t>
+  </si>
+  <si>
+    <t>Document</t>
   </si>
 </sst>
 </file>
@@ -794,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E29"/>
+  <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1167,6 +1170,20 @@
         <v>44081</v>
       </c>
     </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11">
+        <v>44111</v>
+      </c>
+      <c r="E30" s="15">
+        <v>44172</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
